--- a/doc/Kanteen表结构.xlsx
+++ b/doc/Kanteen表结构.xlsx
@@ -837,10 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加料加价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1856,6 +1852,10 @@
   </si>
   <si>
     <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default:0,加料加价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,74 +2145,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,12 +2155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,6 +2168,78 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -2571,42 +2571,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -2633,8 +2633,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2659,8 +2659,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
@@ -2681,12 +2681,12 @@
         <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2711,8 +2711,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="27">
-      <c r="A8" s="41"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2737,8 +2737,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
@@ -2763,8 +2763,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4" t="s">
         <v>149</v>
       </c>
@@ -2787,8 +2787,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2811,8 +2811,8 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2825,8 +2825,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
         <v>157</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
@@ -2855,28 +2855,28 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2891,8 +2891,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
@@ -2905,8 +2905,8 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2919,8 +2919,8 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
@@ -2933,8 +2933,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2947,8 +2947,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2961,8 +2961,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2975,8 +2975,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2989,8 +2989,8 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
@@ -3003,8 +3003,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
@@ -3017,8 +3017,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
@@ -3031,8 +3031,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
@@ -3045,8 +3045,8 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3059,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="14.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4" t="s">
         <v>157</v>
       </c>
@@ -3073,48 +3073,48 @@
       <c r="F31" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A35" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="19" t="s">
+      <c r="A35" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="H35" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="M35" s="19" t="s">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="M35" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
@@ -3153,8 +3153,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
@@ -3191,8 +3191,8 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
@@ -3225,8 +3225,8 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3263,8 +3263,8 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
@@ -3300,9 +3300,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="45"/>
+    <row r="42" spans="1:16" ht="27">
+      <c r="A42" s="27"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
@@ -3314,16 +3314,16 @@
       </c>
       <c r="F42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J42" s="4">
         <v>5</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>214</v>
@@ -3334,13 +3334,13 @@
       <c r="O42" s="4">
         <v>25</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>215</v>
+      <c r="P42" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
@@ -3352,22 +3352,22 @@
       </c>
       <c r="F43" s="4"/>
       <c r="H43" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="J43" s="15">
         <v>5</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="O43" s="4">
         <v>10</v>
@@ -3375,8 +3375,8 @@
       <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
@@ -3388,10 +3388,10 @@
       </c>
       <c r="F44" s="4"/>
       <c r="H44" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="J44" s="4">
         <v>10</v>
@@ -3409,8 +3409,8 @@
       <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
@@ -3443,8 +3443,8 @@
       <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3467,8 +3467,8 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="4" t="s">
         <v>13</v>
       </c>
@@ -3481,8 +3481,8 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
@@ -3495,8 +3495,8 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="4" t="s">
         <v>16</v>
       </c>
@@ -3509,8 +3509,8 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:11" ht="14.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="4" t="s">
         <v>157</v>
       </c>
@@ -3523,38 +3523,38 @@
       <c r="F50" s="4"/>
     </row>
     <row r="54" spans="1:11" ht="18">
-      <c r="A54" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="19" t="s">
+      <c r="A54" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="H54" s="19" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="H54" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" ht="14.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11" ht="15">
-      <c r="A56" s="41"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="2" t="s">
         <v>31</v>
       </c>
@@ -3581,8 +3581,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3609,8 +3609,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>50</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>41</v>
@@ -3633,12 +3633,12 @@
         <v>20</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="4" t="s">
         <v>42</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>500</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>43</v>
@@ -3661,12 +3661,12 @@
         <v>20</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A60" s="41"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="4" t="s">
         <v>45</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>47</v>
@@ -3689,12 +3689,12 @@
         <v>10</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="4" t="s">
         <v>48</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>157</v>
@@ -3719,8 +3719,8 @@
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="4" t="s">
         <v>49</v>
       </c>
@@ -3731,12 +3731,12 @@
         <v>800</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A63" s="41"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="4" t="s">
         <v>51</v>
       </c>
@@ -3749,8 +3749,8 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:11" ht="14.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="4" t="s">
         <v>53</v>
       </c>
@@ -3763,8 +3763,8 @@
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:16" ht="14.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="4" t="s">
         <v>157</v>
       </c>
@@ -3777,42 +3777,42 @@
       <c r="F65" s="4"/>
     </row>
     <row r="68" spans="1:16" ht="18">
-      <c r="A68" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="19" t="s">
+      <c r="A68" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="H68" s="19" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="H68" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" spans="1:16" ht="14.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="26" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="H69" s="26" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="H69" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:16" ht="15">
-      <c r="A70" s="41"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="2" t="s">
         <v>57</v>
       </c>
@@ -3839,8 +3839,8 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A71" s="41"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="4" t="s">
         <v>61</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>61</v>
@@ -3863,12 +3863,12 @@
         <v>20</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A72" s="41"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="4" t="s">
         <v>62</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>50</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>64</v>
@@ -3891,12 +3891,12 @@
         <v>20</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A73" s="41"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="4" t="s">
         <v>65</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>500</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>66</v>
@@ -3919,12 +3919,12 @@
         <v>20</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="4" t="s">
         <v>67</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>69</v>
@@ -3947,12 +3947,12 @@
         <v>10</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="B75" s="45"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="4" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>132</v>
@@ -3977,8 +3977,8 @@
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="4" t="s">
         <v>132</v>
       </c>
@@ -4001,8 +4001,8 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="14.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="45"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="4" t="s">
         <v>157</v>
       </c>
@@ -4015,52 +4015,52 @@
       <c r="F77" s="4"/>
     </row>
     <row r="80" spans="1:16" ht="18">
-      <c r="A80" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="29"/>
+      <c r="C80" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="H80" s="19" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="H80" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="M80" s="19" t="s">
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="M80" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
     </row>
     <row r="81" spans="1:16" ht="73.5" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="26" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
-      <c r="H81" s="26" t="s">
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
+      <c r="H81" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="28"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="39"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="32"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="50"/>
     </row>
     <row r="82" spans="1:16" ht="15">
-      <c r="A82" s="41"/>
-      <c r="B82" s="45"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="2" t="s">
         <v>57</v>
       </c>
@@ -4099,8 +4099,8 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A83" s="41"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="4" t="s">
         <v>61</v>
       </c>
@@ -4121,12 +4121,12 @@
         <v>20</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A84" s="41"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="4" t="s">
         <v>74</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>75</v>
@@ -4149,12 +4149,12 @@
         <v>20</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="54">
-      <c r="A85" s="41"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="4" t="s">
         <v>76</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>77</v>
@@ -4177,12 +4177,12 @@
         <v>20</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A86" s="41"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="4" t="s">
         <v>64</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>159</v>
@@ -4205,12 +4205,12 @@
         <v>20</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A87" s="41"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="4" t="s">
         <v>70</v>
       </c>
@@ -4231,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A88" s="41"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="4" t="s">
         <v>67</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>79</v>
@@ -4259,12 +4259,12 @@
         <v>10</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A89" s="41"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="4" t="s">
         <v>80</v>
       </c>
@@ -4285,12 +4285,12 @@
         <v>5</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A90" s="41"/>
-      <c r="B90" s="45"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="4" t="s">
         <v>53</v>
       </c>
@@ -4311,12 +4311,12 @@
         <v>500</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A91" s="41"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="4" t="s">
         <v>157</v>
       </c>
@@ -4372,38 +4372,38 @@
       <c r="A95" s="12"/>
     </row>
     <row r="96" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A96" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B96" s="45"/>
-      <c r="C96" s="19" t="s">
+      <c r="A96" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="29"/>
+      <c r="C96" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="H96" s="19" t="s">
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="H96" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
     </row>
     <row r="97" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="28"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="37"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="32"/>
     </row>
     <row r="98" spans="1:11" ht="15">
-      <c r="A98" s="41"/>
-      <c r="B98" s="45"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="2" t="s">
         <v>57</v>
       </c>
@@ -4430,8 +4430,8 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="4" t="s">
         <v>61</v>
       </c>
@@ -4454,8 +4454,8 @@
       <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11" ht="14.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="45"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>191</v>
@@ -4480,8 +4480,8 @@
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" ht="14.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="45"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="4" t="s">
         <v>84</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>83</v>
@@ -4506,8 +4506,8 @@
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" ht="67.5">
-      <c r="A102" s="41"/>
-      <c r="B102" s="45"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="4" t="s">
         <v>87</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>50</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>85</v>
@@ -4530,12 +4530,12 @@
         <v>5</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="14.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="45"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="4" t="s">
         <v>74</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>88</v>
@@ -4558,12 +4558,12 @@
         <v>0</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="14.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="45"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="4" t="s">
         <v>76</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>90</v>
@@ -4586,12 +4586,12 @@
         <v>30</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="94.5">
-      <c r="A105" s="41"/>
-      <c r="B105" s="45"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="4" t="s">
         <v>92</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>93</v>
@@ -4614,12 +4614,12 @@
         <v>5</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="14.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="45"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="4" t="s">
         <v>70</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>192</v>
@@ -4644,8 +4644,8 @@
       <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" ht="14.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="45"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="4" t="s">
         <v>67</v>
       </c>
@@ -4656,12 +4656,12 @@
         <v>5</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="4" t="s">
         <v>80</v>
       </c>
@@ -4674,8 +4674,8 @@
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:11" ht="14.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="45"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="4" t="s">
         <v>53</v>
       </c>
@@ -4688,8 +4688,8 @@
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:11" ht="14.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="45"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="4" t="s">
         <v>157</v>
       </c>
@@ -4702,28 +4702,28 @@
       <c r="F110" s="4"/>
     </row>
     <row r="113" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="19" t="s">
+      <c r="B113" s="34"/>
+      <c r="C113" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
     </row>
     <row r="114" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A114" s="40"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="41"/>
     </row>
     <row r="115" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A115" s="41"/>
-      <c r="B115" s="45"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="2" t="s">
         <v>57</v>
       </c>
@@ -4738,8 +4738,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A116" s="41"/>
-      <c r="B116" s="45"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="4" t="s">
         <v>0</v>
       </c>
@@ -4752,8 +4752,8 @@
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A117" s="41"/>
-      <c r="B117" s="45"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="4" t="s">
         <v>186</v>
       </c>
@@ -4766,8 +4766,8 @@
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A118" s="41"/>
-      <c r="B118" s="45"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="4" t="s">
         <v>182</v>
       </c>
@@ -4780,8 +4780,8 @@
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A119" s="41"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="4" t="s">
         <v>94</v>
       </c>
@@ -4794,8 +4794,8 @@
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A120" s="41"/>
-      <c r="B120" s="45"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="4" t="s">
         <v>95</v>
       </c>
@@ -4808,8 +4808,8 @@
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A121" s="41"/>
-      <c r="B121" s="45"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="4" t="s">
         <v>96</v>
       </c>
@@ -4822,8 +4822,8 @@
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A122" s="41"/>
-      <c r="B122" s="45"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="4" t="s">
         <v>97</v>
       </c>
@@ -4836,8 +4836,8 @@
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A123" s="41"/>
-      <c r="B123" s="45"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="4" t="s">
         <v>178</v>
       </c>
@@ -4850,8 +4850,8 @@
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A124" s="41"/>
-      <c r="B124" s="45"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="4" t="s">
         <v>106</v>
       </c>
@@ -4864,8 +4864,8 @@
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A125" s="41"/>
-      <c r="B125" s="45"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="4" t="s">
         <v>164</v>
       </c>
@@ -4878,8 +4878,8 @@
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A126" s="41"/>
-      <c r="B126" s="45"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="4" t="s">
         <v>98</v>
       </c>
@@ -4892,8 +4892,8 @@
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A127" s="41"/>
-      <c r="B127" s="45"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="15" t="s">
         <v>115</v>
       </c>
@@ -4906,8 +4906,8 @@
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A128" s="41"/>
-      <c r="B128" s="45"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="15" t="s">
         <v>162</v>
       </c>
@@ -4920,8 +4920,8 @@
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A129" s="41"/>
-      <c r="B129" s="45"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="4" t="s">
         <v>99</v>
       </c>
@@ -4934,8 +4934,8 @@
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A130" s="41"/>
-      <c r="B130" s="45"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="4" t="s">
         <v>167</v>
       </c>
@@ -4948,8 +4948,8 @@
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A131" s="41"/>
-      <c r="B131" s="45"/>
+      <c r="A131" s="27"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="4" t="s">
         <v>172</v>
       </c>
@@ -4962,8 +4962,8 @@
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A132" s="41"/>
-      <c r="B132" s="45"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="4" t="s">
         <v>168</v>
       </c>
@@ -4976,8 +4976,8 @@
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A133" s="41"/>
-      <c r="B133" s="45"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="4" t="s">
         <v>169</v>
       </c>
@@ -4990,8 +4990,8 @@
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A134" s="41"/>
-      <c r="B134" s="45"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="4" t="s">
         <v>170</v>
       </c>
@@ -5004,8 +5004,8 @@
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A135" s="41"/>
-      <c r="B135" s="45"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="4" t="s">
         <v>171</v>
       </c>
@@ -5018,8 +5018,8 @@
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A136" s="41"/>
-      <c r="B136" s="45"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="4" t="s">
         <v>102</v>
       </c>
@@ -5032,8 +5032,8 @@
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A137" s="41"/>
-      <c r="B137" s="45"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="4" t="s">
         <v>103</v>
       </c>
@@ -5046,8 +5046,8 @@
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A138" s="41"/>
-      <c r="B138" s="45"/>
+      <c r="A138" s="27"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="4" t="s">
         <v>104</v>
       </c>
@@ -5060,8 +5060,8 @@
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A139" s="41"/>
-      <c r="B139" s="45"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="4" t="s">
         <v>105</v>
       </c>
@@ -5074,8 +5074,8 @@
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A140" s="41"/>
-      <c r="B140" s="45"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="4" t="s">
         <v>184</v>
       </c>
@@ -5090,8 +5090,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A141" s="41"/>
-      <c r="B141" s="45"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="4" t="s">
         <v>165</v>
       </c>
@@ -5104,8 +5104,8 @@
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A142" s="41"/>
-      <c r="B142" s="45"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="4" t="s">
         <v>107</v>
       </c>
@@ -5118,8 +5118,8 @@
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" ht="27">
-      <c r="A143" s="41"/>
-      <c r="B143" s="45"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="4" t="s">
         <v>188</v>
       </c>
@@ -5134,8 +5134,8 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A144" s="41"/>
-      <c r="B144" s="45"/>
+      <c r="A144" s="27"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="4" t="s">
         <v>14</v>
       </c>
@@ -5148,8 +5148,8 @@
       <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A145" s="41"/>
-      <c r="B145" s="45"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="4" t="s">
         <v>16</v>
       </c>
@@ -5162,38 +5162,38 @@
       <c r="F145" s="4"/>
     </row>
     <row r="149" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A149" s="40" t="s">
+      <c r="A149" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="20" t="s">
+      <c r="B149" s="29"/>
+      <c r="C149" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="22"/>
-      <c r="H149" s="20" t="s">
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="44"/>
+      <c r="H149" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="22"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="44"/>
     </row>
     <row r="150" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A150" s="41"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="25"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="25"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="37"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="37"/>
     </row>
     <row r="151" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A151" s="41"/>
-      <c r="B151" s="45"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
@@ -5220,8 +5220,8 @@
       </c>
     </row>
     <row r="152" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A152" s="41"/>
-      <c r="B152" s="45"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="4" t="s">
         <v>123</v>
       </c>
@@ -5244,8 +5244,8 @@
       <c r="K152" s="4"/>
     </row>
     <row r="153" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A153" s="41"/>
-      <c r="B153" s="45"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="4" t="s">
         <v>117</v>
       </c>
@@ -5268,8 +5268,8 @@
       <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A154" s="41"/>
-      <c r="B154" s="45"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="4" t="s">
         <v>173</v>
       </c>
@@ -5292,8 +5292,8 @@
       <c r="K154" s="4"/>
     </row>
     <row r="155" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A155" s="41"/>
-      <c r="B155" s="45"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="29"/>
       <c r="C155" s="4" t="s">
         <v>118</v>
       </c>
@@ -5306,8 +5306,8 @@
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A156" s="41"/>
-      <c r="B156" s="45"/>
+      <c r="A156" s="27"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="16" t="s">
         <v>127</v>
       </c>
@@ -5320,8 +5320,8 @@
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A157" s="41"/>
-      <c r="B157" s="45"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="16" t="s">
         <v>128</v>
       </c>
@@ -5334,8 +5334,8 @@
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A158" s="41"/>
-      <c r="B158" s="45"/>
+      <c r="A158" s="27"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="16" t="s">
         <v>137</v>
       </c>
@@ -5350,8 +5350,8 @@
       </c>
     </row>
     <row r="159" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A159" s="41"/>
-      <c r="B159" s="45"/>
+      <c r="A159" s="27"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="16" t="s">
         <v>139</v>
       </c>
@@ -5366,8 +5366,8 @@
       </c>
     </row>
     <row r="160" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A160" s="41"/>
-      <c r="B160" s="45"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="29"/>
       <c r="C160" s="4" t="s">
         <v>124</v>
       </c>
@@ -5380,8 +5380,8 @@
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A161" s="41"/>
-      <c r="B161" s="45"/>
+      <c r="A161" s="27"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="4" t="s">
         <v>174</v>
       </c>
@@ -5394,8 +5394,8 @@
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A162" s="41"/>
-      <c r="B162" s="45"/>
+      <c r="A162" s="27"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="4" t="s">
         <v>7</v>
       </c>
@@ -5408,8 +5408,8 @@
       <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A163" s="41"/>
-      <c r="B163" s="45"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="4" t="s">
         <v>99</v>
       </c>
@@ -5422,8 +5422,8 @@
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A164" s="41"/>
-      <c r="B164" s="45"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="4" t="s">
         <v>100</v>
       </c>
@@ -5436,8 +5436,8 @@
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A165" s="41"/>
-      <c r="B165" s="45"/>
+      <c r="A165" s="27"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="4" t="s">
         <v>101</v>
       </c>
@@ -5450,8 +5450,8 @@
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A166" s="41"/>
-      <c r="B166" s="45"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="4" t="s">
         <v>9</v>
       </c>
@@ -5464,13 +5464,13 @@
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A167" s="41"/>
-      <c r="B167" s="45"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="E167" s="10">
         <v>200</v>
@@ -5478,8 +5478,8 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A168" s="41"/>
-      <c r="B168" s="45"/>
+      <c r="A168" s="27"/>
+      <c r="B168" s="29"/>
       <c r="C168" s="4" t="s">
         <v>14</v>
       </c>
@@ -5492,8 +5492,8 @@
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A169" s="41"/>
-      <c r="B169" s="45"/>
+      <c r="A169" s="27"/>
+      <c r="B169" s="29"/>
       <c r="C169" s="4" t="s">
         <v>16</v>
       </c>
@@ -5511,28 +5511,28 @@
       <c r="E170" s="9"/>
     </row>
     <row r="173" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A173" s="40" t="s">
+      <c r="A173" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B173" s="42"/>
-      <c r="C173" s="20" t="s">
+      <c r="B173" s="20"/>
+      <c r="C173" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="22"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="44"/>
     </row>
     <row r="174" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A174" s="41"/>
-      <c r="B174" s="43"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="35"/>
+      <c r="A174" s="27"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="41"/>
     </row>
     <row r="175" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A175" s="41"/>
-      <c r="B175" s="43"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
@@ -5547,8 +5547,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A176" s="41"/>
-      <c r="B176" s="43"/>
+      <c r="A176" s="27"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="4" t="s">
         <v>0</v>
       </c>
@@ -5561,8 +5561,8 @@
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A177" s="41"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="27"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="4" t="s">
         <v>125</v>
       </c>
@@ -5575,8 +5575,8 @@
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A178" s="41"/>
-      <c r="B178" s="43"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="4" t="s">
         <v>2</v>
       </c>
@@ -5589,8 +5589,8 @@
       <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A179" s="41"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="4" t="s">
         <v>119</v>
       </c>
@@ -5603,8 +5603,8 @@
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A180" s="41"/>
-      <c r="B180" s="43"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="4" t="s">
         <v>7</v>
       </c>
@@ -5617,8 +5617,8 @@
       <c r="F180" s="4"/>
     </row>
     <row r="181" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A181" s="41"/>
-      <c r="B181" s="43"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="4" t="s">
         <v>107</v>
       </c>
@@ -5631,8 +5631,8 @@
       <c r="F181" s="4"/>
     </row>
     <row r="182" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A182" s="41"/>
-      <c r="B182" s="43"/>
+      <c r="A182" s="27"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="4" t="s">
         <v>9</v>
       </c>
@@ -5645,8 +5645,8 @@
       <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A183" s="41"/>
-      <c r="B183" s="43"/>
+      <c r="A183" s="27"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="4" t="s">
         <v>14</v>
       </c>
@@ -5659,8 +5659,8 @@
       <c r="F183" s="4"/>
     </row>
     <row r="184" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A184" s="41"/>
-      <c r="B184" s="44"/>
+      <c r="A184" s="27"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="4" t="s">
         <v>16</v>
       </c>
@@ -5673,48 +5673,48 @@
       <c r="F184" s="4"/>
     </row>
     <row r="189" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B189" s="42"/>
-      <c r="C189" s="20" t="s">
+      <c r="B189" s="20"/>
+      <c r="C189" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="22"/>
-      <c r="H189" s="19" t="s">
+      <c r="D189" s="43"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="44"/>
+      <c r="H189" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="M189" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
+      <c r="M189" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="N189" s="28"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="28"/>
     </row>
     <row r="190" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A190" s="48"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="35"/>
-      <c r="H190" s="29"/>
-      <c r="I190" s="29"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="29"/>
-      <c r="M190" s="29"/>
-      <c r="N190" s="29"/>
-      <c r="O190" s="29"/>
-      <c r="P190" s="29"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="41"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
     </row>
     <row r="191" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A191" s="48"/>
-      <c r="B191" s="43"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
@@ -5753,8 +5753,8 @@
       </c>
     </row>
     <row r="192" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A192" s="48"/>
-      <c r="B192" s="43"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="4" t="s">
         <v>123</v>
       </c>
@@ -5778,19 +5778,19 @@
         <v>142</v>
       </c>
       <c r="M192" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N192" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N192" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="O192" s="4">
         <v>20</v>
       </c>
       <c r="P192" s="4"/>
     </row>
     <row r="193" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A193" s="48"/>
-      <c r="B193" s="43"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="4" t="s">
         <v>113</v>
       </c>
@@ -5811,13 +5811,13 @@
         <v>20</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O193" s="4">
         <v>20</v>
@@ -5825,8 +5825,8 @@
       <c r="P193" s="4"/>
     </row>
     <row r="194" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A194" s="48"/>
-      <c r="B194" s="43"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="4" t="s">
         <v>130</v>
       </c>
@@ -5850,10 +5850,10 @@
         <v>143</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O194" s="4">
         <v>20</v>
@@ -5861,8 +5861,8 @@
       <c r="P194" s="4"/>
     </row>
     <row r="195" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A195" s="48"/>
-      <c r="B195" s="43"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="4" t="s">
         <v>131</v>
       </c>
@@ -5886,10 +5886,10 @@
         <v>144</v>
       </c>
       <c r="M195" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N195" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="N195" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="O195" s="4">
         <v>0</v>
@@ -5897,8 +5897,8 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" ht="14.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="43"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="4" t="s">
         <v>180</v>
       </c>
@@ -5910,21 +5910,21 @@
       </c>
       <c r="F196" s="4"/>
       <c r="H196" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J196" s="10">
         <v>10</v>
       </c>
       <c r="K196" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="14.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="44"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="4" t="s">
         <v>132</v>
       </c>
@@ -5964,6 +5964,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="H189:K189"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="M189:P189"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H190:K190"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="A173:A184"/>
+    <mergeCell ref="B173:B184"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="B149:B169"/>
+    <mergeCell ref="A149:A169"/>
+    <mergeCell ref="B113:B145"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="A113:A145"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="B80:B91"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="B96:B110"/>
+    <mergeCell ref="C80:F80"/>
     <mergeCell ref="M190:P190"/>
     <mergeCell ref="B189:B197"/>
     <mergeCell ref="A189:A197"/>
@@ -5980,56 +6030,6 @@
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="B80:B91"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A96:A110"/>
-    <mergeCell ref="B96:B110"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="B113:B145"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="A113:A145"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="A173:A184"/>
-    <mergeCell ref="B173:B184"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="B149:B169"/>
-    <mergeCell ref="A149:A169"/>
-    <mergeCell ref="H190:K190"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="H150:K150"/>
-    <mergeCell ref="H189:K189"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="M189:P189"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H68:K68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
